--- a/20_営業/07_会計/TE030/T_TE030_CFO_019_A14_03_電子帳簿残高の情報系システム連携_OIC統合.xlsx
+++ b/20_営業/07_会計/TE030/T_TE030_CFO_019_A14_03_電子帳簿残高の情報系システム連携_OIC統合.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\20_実装フェーズ\10_成果物\16_単体テスト実施\外部結合完了時\OIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19901～20000\E_本稼動_19992【共通】OIC3アップグレード対応\20_成果物\TE030\無影響確認\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4800" windowWidth="23040" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="23040" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -24,8 +24,9 @@
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ5)" sheetId="13" r:id="rId10"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ6)" sheetId="14" r:id="rId11"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ7)" sheetId="15" r:id="rId12"/>
-    <sheet name="不具合ログ" sheetId="7" r:id="rId13"/>
-    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId14"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ8)" sheetId="16" r:id="rId13"/>
+    <sheet name="不具合ログ" sheetId="7" r:id="rId14"/>
+    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$19</definedName>
@@ -37,11 +38,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="9">'テスト仕様_テスト結果(テスト・シナリオ5)'!$A$1:$I$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'テスト仕様_テスト結果(テスト・シナリオ6)'!$A$1:$I$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'テスト仕様_テスト結果(テスト・シナリオ7)'!$A$1:$I$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'テスト仕様_テスト結果(テスト・シナリオ8)'!$A$1:$I$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$H$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$16</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="199">
   <si>
     <t>株式会社伊藤園</t>
     <phoneticPr fontId="5"/>
@@ -1144,17 +1146,107 @@
   <si>
     <t>Issue化</t>
   </si>
+  <si>
+    <t>Issue1.1</t>
+  </si>
+  <si>
+    <t>Issue1.1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SCSK 佐藤勇樹</t>
+    <rPh sb="5" eb="9">
+      <t>サトウユウキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シナリオ8</t>
+  </si>
+  <si>
+    <t>OIC3アップグレード 無影響確認テスト(DBへのCUID・共通処理動作確認)</t>
+  </si>
+  <si>
+    <t>T_TE030_CFO_019_A14_03_電子帳簿残高の情報系システム連携_OIC統合_エビデンス(シナリオ8).xlsx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①XXCFO019A14_03から共通処理XXCCD001が実行され、正常終了する。
+②プロファイルオプション値テーブルが更新される。</t>
+    <rPh sb="17" eb="21">
+      <t>キョウツウショリ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8-2</t>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テスト・シナリオ8</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>XXCCD001(プロファイル値更新)
+・有効会計期間番号更新</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>正常終了する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCFO019A14_03(電子帳簿残高の情報系システム連携)</t>
+    <rPh sb="15" eb="17">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チョウボ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ザンダカ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ジョウホウケイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E_本稼働_19992 OICアップグレード対応 無影響確認</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="mmm\ dd\ yyyy"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1342,6 +1434,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1392,7 +1499,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -2030,6 +2137,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2043,7 +2161,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2417,6 +2535,27 @@
     <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2461,6 +2600,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFC0C0C0"/>
     </mruColors>
@@ -7823,6 +7963,731 @@
         <a:xfrm>
           <a:off x="28575" y="30184725"/>
           <a:ext cx="3400425" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>         記述します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="30582870"/>
+          <a:ext cx="6939915" cy="2606040"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.020作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                   例：シナリオX-Xと同時検証</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="33284160"/>
+          <a:ext cx="6939915" cy="2802255"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.070作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・○: テスト成功</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・×: テスト失敗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="29763720"/>
+          <a:ext cx="3303270" cy="455295"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -8167,7 +9032,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
@@ -8177,7 +9042,7 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="12" customHeight="1">
+    <row r="3" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -8185,7 +9050,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:8" ht="6" customHeight="1">
+    <row r="4" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -8194,7 +9059,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="21">
+    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -8203,67 +9068,67 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1">
-      <c r="B6" s="135" t="s">
+    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-    </row>
-    <row r="7" spans="2:8" ht="6" customHeight="1">
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+    </row>
+    <row r="7" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="6" customHeight="1">
+    <row r="8" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B9" s="136" t="s">
+    <row r="9" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-    </row>
-    <row r="10" spans="2:8" ht="6" customHeight="1">
+      <c r="C9" s="143"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
+    </row>
+    <row r="10" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B11" s="136" t="s">
+    <row r="11" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="136"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-    </row>
-    <row r="12" spans="2:8" ht="6" customHeight="1"/>
-    <row r="13" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B13" s="136" t="s">
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+    </row>
+    <row r="12" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
@@ -8271,11 +9136,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="6" customHeight="1">
+    <row r="17" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
@@ -8283,23 +9148,23 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="6" customHeight="1">
+    <row r="19" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>44984</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="6" customHeight="1">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22" s="6" t="s">
         <v>72</v>
       </c>
@@ -8307,25 +9172,25 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="6" customHeight="1">
+    <row r="23" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="12" customHeight="1">
+    <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -8337,7 +9202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12" customHeight="1">
+    <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -8375,7 +9240,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -8388,7 +9253,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -8399,35 +9264,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>41</v>
       </c>
@@ -8453,7 +9318,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>139</v>
@@ -8468,7 +9333,7 @@
       <c r="H11" s="118"/>
       <c r="I11" s="125"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="123" t="s">
         <v>140</v>
       </c>
@@ -8494,7 +9359,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="123"/>
       <c r="C13" s="119"/>
       <c r="D13" s="119"/>
@@ -8514,7 +9379,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -8534,7 +9399,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="123"/>
       <c r="C15" s="46"/>
       <c r="D15" s="119"/>
@@ -8554,7 +9419,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="73.5">
+    <row r="16" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B16" s="123"/>
       <c r="C16" s="119"/>
       <c r="D16" s="119"/>
@@ -8574,7 +9439,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="73.5">
+    <row r="17" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="123" t="s">
         <v>143</v>
@@ -8601,7 +9466,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="52.5">
+    <row r="18" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="123"/>
       <c r="C18" s="46"/>
@@ -8622,7 +9487,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="52.5">
+    <row r="19" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B19" s="123"/>
       <c r="C19" s="46"/>
       <c r="D19" s="119"/>
@@ -8642,7 +9507,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="94.5">
+    <row r="20" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B20" s="123"/>
       <c r="C20" s="46"/>
       <c r="D20" s="119"/>
@@ -8662,7 +9527,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="123"/>
       <c r="C21" s="46"/>
       <c r="D21" s="119"/>
@@ -8672,7 +9537,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="123"/>
       <c r="C22" s="46"/>
       <c r="D22" s="119"/>
@@ -8682,7 +9547,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -8692,7 +9557,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="117"/>
       <c r="D24" s="46"/>
@@ -8702,7 +9567,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -8712,7 +9577,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="68"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -8722,7 +9587,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -8732,7 +9597,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -8742,7 +9607,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="72"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -8752,7 +9617,7 @@
       <c r="H29" s="47"/>
       <c r="I29" s="77"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -8762,7 +9627,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -8772,7 +9637,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9" ht="6" customHeight="1">
+    <row r="32" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -8782,7 +9647,7 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="14.25">
+    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="32" t="s">
         <v>49</v>
       </c>
@@ -8792,7 +9657,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -8802,7 +9667,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -8812,7 +9677,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -8822,7 +9687,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -8832,7 +9697,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -8842,7 +9707,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -8860,7 +9725,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -8878,7 +9743,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -8891,7 +9756,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -8902,35 +9767,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>41</v>
       </c>
@@ -8956,7 +9821,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>144</v>
@@ -8971,7 +9836,7 @@
       <c r="H11" s="118"/>
       <c r="I11" s="125"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>145</v>
       </c>
@@ -8997,7 +9862,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -9017,7 +9882,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -9037,7 +9902,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -9057,7 +9922,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="73.5">
+    <row r="16" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
@@ -9078,7 +9943,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="123"/>
       <c r="C17" s="46"/>
@@ -9089,7 +9954,7 @@
       <c r="H17" s="57"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="123"/>
       <c r="C18" s="46"/>
       <c r="D18" s="119"/>
@@ -9099,7 +9964,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="123"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -9109,7 +9974,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -9119,7 +9984,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -9129,7 +9994,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -9139,7 +10004,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -9149,7 +10014,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="117"/>
       <c r="D24" s="46"/>
@@ -9159,7 +10024,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -9169,7 +10034,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="68"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -9179,7 +10044,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -9189,7 +10054,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -9199,7 +10064,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="72"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -9209,7 +10074,7 @@
       <c r="H29" s="47"/>
       <c r="I29" s="77"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -9219,7 +10084,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -9229,7 +10094,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9" ht="6" customHeight="1">
+    <row r="32" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -9239,7 +10104,7 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="14.25">
+    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="32" t="s">
         <v>49</v>
       </c>
@@ -9249,7 +10114,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -9259,7 +10124,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -9269,7 +10134,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -9279,7 +10144,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -9289,7 +10154,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -9299,7 +10164,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -9317,7 +10182,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -9335,7 +10200,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -9348,7 +10213,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -9359,35 +10224,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>41</v>
       </c>
@@ -9413,7 +10278,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>88</v>
@@ -9428,7 +10293,7 @@
       <c r="H11" s="118"/>
       <c r="I11" s="125"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>90</v>
       </c>
@@ -9454,7 +10319,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -9474,7 +10339,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -9494,7 +10359,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -9514,7 +10379,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="73.5">
+    <row r="16" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
@@ -9535,7 +10400,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
@@ -9546,7 +10411,7 @@
       <c r="H17" s="57"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="123"/>
       <c r="C18" s="46"/>
       <c r="D18" s="119"/>
@@ -9556,7 +10421,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="123"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -9566,7 +10431,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -9576,7 +10441,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -9586,7 +10451,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -9596,7 +10461,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -9606,7 +10471,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="117"/>
       <c r="D24" s="46"/>
@@ -9616,7 +10481,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -9626,7 +10491,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="68"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -9636,7 +10501,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -9646,7 +10511,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -9656,7 +10521,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="72"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -9666,7 +10531,7 @@
       <c r="H29" s="47"/>
       <c r="I29" s="77"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -9676,7 +10541,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -9686,7 +10551,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9" ht="6" customHeight="1">
+    <row r="32" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -9696,7 +10561,7 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="14.25">
+    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="32" t="s">
         <v>95</v>
       </c>
@@ -9706,7 +10571,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -9716,7 +10581,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -9726,7 +10591,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -9736,7 +10601,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -9746,7 +10611,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -9756,7 +10621,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -9774,7 +10639,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -9782,12 +10647,281 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="25"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="135" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="106" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="107" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="38"/>
+      <c r="B11" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="I11" s="78">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="38"/>
+      <c r="B12" s="141" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="I12" s="76">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="72"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="77"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="126" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G13">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="3" width="9.125" style="27" customWidth="1"/>
@@ -9797,7 +10931,7 @@
     <col min="9" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="6" customHeight="1">
+    <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -9807,51 +10941,51 @@
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25">
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" thickBot="1">
+    <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="140" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="147" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="142" t="s">
+      <c r="D5" s="149" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="144" t="s">
+      <c r="E5" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="142" t="s">
+      <c r="F5" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="144" t="s">
+      <c r="G5" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="138" t="s">
+      <c r="H5" s="145" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" thickBot="1">
-      <c r="B6" s="141"/>
+    <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="148"/>
       <c r="C6" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="143"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="139"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="D6" s="150"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="146"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="66" t="s">
         <v>176</v>
       </c>
@@ -9874,7 +11008,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="68"/>
       <c r="C8" s="42"/>
       <c r="D8" s="44"/>
@@ -9883,7 +11017,7 @@
       <c r="G8" s="48"/>
       <c r="H8" s="69"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="68"/>
       <c r="C9" s="46"/>
       <c r="D9" s="42"/>
@@ -9892,7 +11026,7 @@
       <c r="G9" s="52"/>
       <c r="H9" s="69"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="68"/>
       <c r="C10" s="46"/>
       <c r="D10" s="46"/>
@@ -9901,7 +11035,7 @@
       <c r="G10" s="48"/>
       <c r="H10" s="69"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="68"/>
       <c r="C11" s="42"/>
       <c r="D11" s="46"/>
@@ -9910,7 +11044,7 @@
       <c r="G11" s="53"/>
       <c r="H11" s="70"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="68"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -9919,7 +11053,7 @@
       <c r="G12" s="52"/>
       <c r="H12" s="70"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="68"/>
       <c r="C13" s="42"/>
       <c r="D13" s="54"/>
@@ -9928,7 +11062,7 @@
       <c r="G13" s="48"/>
       <c r="H13" s="71"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="68"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -9937,7 +11071,7 @@
       <c r="G14" s="52"/>
       <c r="H14" s="70"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="68"/>
       <c r="C15" s="42"/>
       <c r="D15" s="54"/>
@@ -9946,7 +11080,7 @@
       <c r="G15" s="48"/>
       <c r="H15" s="71"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="68"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -9955,7 +11089,7 @@
       <c r="G16" s="52"/>
       <c r="H16" s="69"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="68"/>
       <c r="C17" s="42"/>
       <c r="D17" s="54"/>
@@ -9964,7 +11098,7 @@
       <c r="G17" s="48"/>
       <c r="H17" s="70"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="68"/>
       <c r="C18" s="46"/>
       <c r="D18" s="42"/>
@@ -9973,7 +11107,7 @@
       <c r="G18" s="52"/>
       <c r="H18" s="69"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="68"/>
       <c r="C19" s="42"/>
       <c r="D19" s="46"/>
@@ -9982,7 +11116,7 @@
       <c r="G19" s="48"/>
       <c r="H19" s="70"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="68"/>
       <c r="C20" s="46"/>
       <c r="D20" s="42"/>
@@ -9991,7 +11125,7 @@
       <c r="G20" s="52"/>
       <c r="H20" s="69"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="68"/>
       <c r="C21" s="42"/>
       <c r="D21" s="46"/>
@@ -10000,7 +11134,7 @@
       <c r="G21" s="48"/>
       <c r="H21" s="70"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="68"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -10009,7 +11143,7 @@
       <c r="G22" s="52"/>
       <c r="H22" s="69"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="66"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
@@ -10018,7 +11152,7 @@
       <c r="G23" s="56"/>
       <c r="H23" s="69"/>
     </row>
-    <row r="24" spans="2:8" ht="14.25" thickBot="1">
+    <row r="24" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="72"/>
       <c r="C24" s="73"/>
       <c r="D24" s="73"/>
@@ -10048,14 +11182,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="27" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="27" customWidth="1"/>
@@ -10066,7 +11200,7 @@
     <col min="8" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="6" customHeight="1">
+    <row r="1" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="28"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -10075,25 +11209,25 @@
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
     </row>
-    <row r="2" spans="1:7" ht="17.25">
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="6" customHeight="1">
+    <row r="4" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" thickBot="1">
+    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" thickBot="1">
+    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="59"/>
       <c r="B7" s="110" t="s">
         <v>60</v>
@@ -10114,7 +11248,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="60"/>
       <c r="C8" s="61"/>
@@ -10123,7 +11257,7 @@
       <c r="F8" s="62"/>
       <c r="G8" s="63"/>
     </row>
-    <row r="9" spans="1:7" ht="14.1" customHeight="1">
+    <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -10132,23 +11266,23 @@
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="6" customHeight="1">
+    <row r="11" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25">
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" thickBot="1">
+    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" thickBot="1">
+    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="59"/>
       <c r="B14" s="110" t="s">
         <v>60</v>
@@ -10169,7 +11303,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.1" customHeight="1">
+    <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="35"/>
       <c r="B15" s="64"/>
       <c r="C15" s="39"/>
@@ -10178,7 +11312,7 @@
       <c r="F15" s="40"/>
       <c r="G15" s="65"/>
     </row>
-    <row r="16" spans="1:7" ht="14.1" customHeight="1">
+    <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="35"/>
       <c r="B16" s="64"/>
       <c r="C16" s="39"/>
@@ -10187,7 +11321,7 @@
       <c r="F16" s="40"/>
       <c r="G16" s="65"/>
     </row>
-    <row r="17" spans="1:7" ht="14.1" customHeight="1">
+    <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="35"/>
       <c r="B17" s="64"/>
       <c r="C17" s="39"/>
@@ -10196,7 +11330,7 @@
       <c r="F17" s="40"/>
       <c r="G17" s="65"/>
     </row>
-    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="60"/>
       <c r="C18" s="61"/>
@@ -10220,20 +11354,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="15" customWidth="1"/>
     <col min="4" max="4" width="7.625" style="15" customWidth="1"/>
     <col min="5" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="8.1" customHeight="1">
+    <row r="1" spans="1:9" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -10244,29 +11380,29 @@
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="3.95" customHeight="1">
+    <row r="4" spans="1:9" ht="3.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="14.25">
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25" thickBot="1">
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="99" t="s">
         <v>10</v>
       </c>
@@ -10284,7 +11420,7 @@
       <c r="H7" s="101"/>
       <c r="I7" s="102"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="91">
         <v>44942</v>
       </c>
@@ -10302,7 +11438,7 @@
       <c r="H8" s="23"/>
       <c r="I8" s="92"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="91">
         <v>44984</v>
       </c>
@@ -10320,27 +11456,45 @@
       <c r="H9" s="23"/>
       <c r="I9" s="92"/>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="93"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="98"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="17"/>
-    </row>
-    <row r="12" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="136">
+        <v>45561</v>
+      </c>
+      <c r="C10" s="137" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="138" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="139" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="92"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="93"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="98"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -10361,13 +11515,13 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="13" width="6.625" style="27" customWidth="1"/>
     <col min="14" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1">
+    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -10382,156 +11536,156 @@
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25">
+    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="4" spans="1:13" ht="6" customHeight="1">
+    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1">
+    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
     </row>
-    <row r="7" spans="1:13" ht="14.45" customHeight="1">
+    <row r="7" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="9" spans="1:13" ht="14.45" customHeight="1">
+    <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="38" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.45" customHeight="1">
+    <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="12" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="13" spans="1:13" ht="6" customHeight="1">
+    <row r="11" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="29"/>
     </row>
-    <row r="16" spans="1:13" ht="14.45" customHeight="1">
+    <row r="16" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.45" customHeight="1">
+    <row r="17" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="19" spans="1:13" ht="14.45" customHeight="1">
+    <row r="18" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="27" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:13" ht="14.45" customHeight="1">
+    <row r="20" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="38" t="s">
         <v>79</v>
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:13" ht="14.45" customHeight="1">
+    <row r="21" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:13" ht="14.45" customHeight="1">
+    <row r="22" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:13" ht="6" customHeight="1">
+    <row r="23" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="14.45" customHeight="1">
+    <row r="25" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="1:13" ht="14.45" customHeight="1">
+    <row r="26" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="27" t="s">
         <v>24</v>
       </c>
       <c r="M26" s="30"/>
     </row>
-    <row r="27" spans="1:13" ht="14.45" customHeight="1">
+    <row r="27" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="27" t="s">
         <v>25</v>
       </c>
       <c r="M27" s="30"/>
     </row>
-    <row r="28" spans="1:13" ht="14.45" customHeight="1">
+    <row r="28" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="27" t="s">
         <v>26</v>
       </c>
       <c r="M28" s="30"/>
     </row>
-    <row r="29" spans="1:13" ht="14.45" customHeight="1">
+    <row r="29" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="27" t="s">
         <v>27</v>
       </c>
       <c r="M29" s="30"/>
     </row>
-    <row r="30" spans="1:13" ht="14.45" customHeight="1">
+    <row r="30" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="27" t="s">
         <v>28</v>
       </c>
       <c r="M30" s="30"/>
     </row>
-    <row r="31" spans="1:13" ht="14.45" customHeight="1">
+    <row r="31" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="27" t="s">
         <v>29</v>
       </c>
       <c r="M31" s="30"/>
     </row>
-    <row r="32" spans="1:13" ht="14.45" customHeight="1">
+    <row r="32" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="27" t="s">
         <v>30</v>
       </c>
       <c r="M32" s="30"/>
     </row>
-    <row r="33" spans="2:13" ht="14.45" customHeight="1">
+    <row r="33" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="27" t="s">
         <v>31</v>
       </c>
       <c r="M33" s="30"/>
     </row>
-    <row r="34" spans="2:13" ht="14.45" customHeight="1">
+    <row r="34" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="27" t="s">
         <v>32</v>
       </c>
       <c r="M34" s="30"/>
     </row>
-    <row r="35" spans="2:13" ht="14.45" customHeight="1">
+    <row r="35" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M35" s="30"/>
     </row>
-    <row r="36" spans="2:13" ht="14.45" customHeight="1">
+    <row r="36" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M36" s="30"/>
     </row>
-    <row r="37" spans="2:13" ht="14.45" customHeight="1">
+    <row r="37" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M37" s="30"/>
     </row>
   </sheetData>
@@ -10549,13 +11703,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="2.75" style="82"/>
     <col min="4" max="4" width="22.125" style="82" customWidth="1"/>
@@ -10564,7 +11719,7 @@
     <col min="7" max="16384" width="2.75" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="6" customHeight="1">
+    <row r="1" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="81"/>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -10572,7 +11727,7 @@
       <c r="E1" s="81"/>
       <c r="F1" s="81"/>
     </row>
-    <row r="2" spans="1:6" ht="17.25">
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="80" t="s">
         <v>71</v>
       </c>
@@ -10582,7 +11737,7 @@
       <c r="E2" s="79"/>
       <c r="F2" s="79"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="79"/>
       <c r="B3" s="79"/>
       <c r="C3" s="83"/>
@@ -10590,7 +11745,7 @@
       <c r="E3" s="83"/>
       <c r="F3" s="83"/>
     </row>
-    <row r="4" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="4" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A4" s="84"/>
       <c r="B4" s="84"/>
       <c r="C4" s="84"/>
@@ -10600,7 +11755,7 @@
       <c r="E4" s="84"/>
       <c r="F4" s="84"/>
     </row>
-    <row r="5" spans="1:6" s="85" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:6" s="85" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="84"/>
       <c r="B5" s="84"/>
       <c r="C5" s="84"/>
@@ -10608,7 +11763,7 @@
       <c r="E5" s="84"/>
       <c r="F5" s="84"/>
     </row>
-    <row r="6" spans="1:6" s="85" customFormat="1" ht="12">
+    <row r="6" spans="1:6" s="85" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
       <c r="C6" s="84"/>
@@ -10620,7 +11775,7 @@
       </c>
       <c r="F6" s="84"/>
     </row>
-    <row r="7" spans="1:6" s="85" customFormat="1">
+    <row r="7" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
       <c r="C7" s="84"/>
@@ -10632,7 +11787,7 @@
       </c>
       <c r="F7" s="84"/>
     </row>
-    <row r="8" spans="1:6" s="85" customFormat="1">
+    <row r="8" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
       <c r="C8" s="84"/>
@@ -10644,7 +11799,7 @@
       </c>
       <c r="F8" s="84"/>
     </row>
-    <row r="9" spans="1:6" s="85" customFormat="1">
+    <row r="9" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="84"/>
       <c r="B9" s="84"/>
       <c r="C9" s="84"/>
@@ -10656,7 +11811,7 @@
       </c>
       <c r="F9" s="84"/>
     </row>
-    <row r="10" spans="1:6" s="85" customFormat="1">
+    <row r="10" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="84"/>
       <c r="B10" s="84"/>
       <c r="C10" s="84"/>
@@ -10668,7 +11823,7 @@
       </c>
       <c r="F10" s="84"/>
     </row>
-    <row r="11" spans="1:6" s="85" customFormat="1">
+    <row r="11" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="84"/>
       <c r="B11" s="84"/>
       <c r="C11" s="84"/>
@@ -10680,7 +11835,7 @@
       </c>
       <c r="F11" s="84"/>
     </row>
-    <row r="12" spans="1:6" s="85" customFormat="1">
+    <row r="12" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="84"/>
       <c r="B12" s="84"/>
       <c r="C12" s="84"/>
@@ -10692,7 +11847,7 @@
       </c>
       <c r="F12" s="84"/>
     </row>
-    <row r="13" spans="1:6" s="85" customFormat="1">
+    <row r="13" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="84"/>
       <c r="B13" s="84"/>
       <c r="C13" s="84"/>
@@ -10704,15 +11859,19 @@
       </c>
       <c r="F13" s="84"/>
     </row>
-    <row r="14" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="14" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="84"/>
       <c r="B14" s="84"/>
       <c r="C14" s="84"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="87"/>
+      <c r="D14" s="121" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="140" t="s">
+        <v>188</v>
+      </c>
       <c r="F14" s="84"/>
     </row>
-    <row r="15" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="15" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A15" s="84"/>
       <c r="B15" s="84"/>
       <c r="C15" s="84"/>
@@ -10720,7 +11879,7 @@
       <c r="E15" s="87"/>
       <c r="F15" s="84"/>
     </row>
-    <row r="16" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="16" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A16" s="84"/>
       <c r="B16" s="84"/>
       <c r="C16" s="84"/>
@@ -10728,7 +11887,7 @@
       <c r="E16" s="87"/>
       <c r="F16" s="84"/>
     </row>
-    <row r="17" spans="1:6" s="85" customFormat="1" ht="12" thickBot="1">
+    <row r="17" spans="1:6" s="85" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="88"/>
       <c r="B17" s="84"/>
       <c r="C17" s="84"/>
@@ -10736,7 +11895,7 @@
       <c r="E17" s="90"/>
       <c r="F17" s="84"/>
     </row>
-    <row r="18" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="18" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A18" s="84"/>
       <c r="B18" s="88"/>
       <c r="C18" s="88"/>
@@ -10744,7 +11903,7 @@
       <c r="E18" s="88"/>
       <c r="F18" s="88"/>
     </row>
-    <row r="19" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="19" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A19" s="88"/>
       <c r="B19" s="88"/>
       <c r="C19" s="88"/>
@@ -10762,9 +11921,10 @@
     <hyperlink ref="D10" location="'テスト仕様_テスト結果(テスト・シナリオ4)'!A1" display="シナリオ4"/>
     <hyperlink ref="D9" location="'テスト仕様_テスト結果(テスト・シナリオ3) '!A1" display="シナリオ3"/>
     <hyperlink ref="D13" location="'テスト仕様_テスト結果(テスト・シナリオ7)'!A1" display="シナリオ7"/>
+    <hyperlink ref="D14" location="'テスト仕様_テスト結果(テスト・シナリオ8)'!A1" display="シナリオ8"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;8&amp;F&amp;R&amp;8XXX構築プロジェクト
 &lt;YYYY/MM/DD&gt;</oddHeader>
@@ -10781,7 +11941,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="27" customWidth="1"/>
@@ -10789,53 +11949,53 @@
     <col min="4" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="6" customHeight="1">
+    <row r="1" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" s="33"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" s="127" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="137" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="144" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="137"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="C7" s="144"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" s="128"/>
       <c r="C8" s="128"/>
     </row>
-    <row r="9" spans="1:4" s="116" customFormat="1">
+    <row r="9" spans="1:4" s="116" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="34" t="s">
         <v>111</v>
       </c>
       <c r="C9" s="27"/>
     </row>
-    <row r="10" spans="1:4" s="116" customFormat="1">
+    <row r="10" spans="1:4" s="116" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="33" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="27"/>
     </row>
-    <row r="11" spans="1:4" ht="14.25" thickBot="1">
+    <row r="11" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="129" t="s">
         <v>112</v>
       </c>
@@ -10843,7 +12003,7 @@
         <v>1271930</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.25" thickBot="1">
+    <row r="12" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="114" t="s">
         <v>75</v>
       </c>
@@ -10851,7 +12011,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21.75" thickBot="1">
+    <row r="13" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="120" t="s">
         <v>113</v>
       </c>
@@ -10859,20 +12019,20 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" s="34" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B16" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="14.25" thickBot="1">
+    <row r="17" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="129" t="s">
         <v>112</v>
       </c>
@@ -10880,7 +12040,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="14.25" thickBot="1">
+    <row r="18" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="114" t="s">
         <v>75</v>
       </c>
@@ -10888,7 +12048,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="21.75" thickBot="1">
+    <row r="19" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="120" t="s">
         <v>116</v>
       </c>
@@ -10896,20 +12056,20 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20" s="33"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" s="34" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="14.25" thickBot="1">
+    <row r="23" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" s="129" t="s">
         <v>112</v>
       </c>
@@ -10917,7 +12077,7 @@
         <v>1115595</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="14.25" thickBot="1">
+    <row r="24" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="114" t="s">
         <v>75</v>
       </c>
@@ -10925,7 +12085,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="21.75" thickBot="1">
+    <row r="25" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="120" t="s">
         <v>113</v>
       </c>
@@ -10933,24 +12093,24 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B26" s="33"/>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B27" s="34" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B28" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B29" s="130"/>
       <c r="C29" s="130"/>
     </row>
-    <row r="30" spans="2:3" ht="14.25" thickBot="1">
+    <row r="30" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="129" t="s">
         <v>112</v>
       </c>
@@ -10958,7 +12118,7 @@
         <v>1271932</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="14.25" thickBot="1">
+    <row r="31" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B31" s="114" t="s">
         <v>75</v>
       </c>
@@ -10966,7 +12126,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="21.75" thickBot="1">
+    <row r="32" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B32" s="120" t="s">
         <v>113</v>
       </c>
@@ -10974,25 +12134,25 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" s="129"/>
       <c r="C33" s="130"/>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" s="34" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" s="33" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B36" s="130"/>
       <c r="C36" s="130"/>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B37" s="129" t="s">
         <v>112</v>
       </c>
@@ -11000,7 +12160,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="14.25" thickBot="1">
+    <row r="38" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B38" s="129" t="s">
         <v>121</v>
       </c>
@@ -11008,7 +12168,7 @@
         <v>1271930</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="14.25" thickBot="1">
+    <row r="39" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="114" t="s">
         <v>75</v>
       </c>
@@ -11016,7 +12176,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="21">
+    <row r="40" spans="2:3" ht="21" x14ac:dyDescent="0.15">
       <c r="B40" s="131" t="s">
         <v>113</v>
       </c>
@@ -11024,7 +12184,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="14.25" thickBot="1">
+    <row r="41" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B41" s="120" t="s">
         <v>122</v>
       </c>
@@ -11032,41 +12192,41 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B42" s="34"/>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B43" s="34" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B44" s="33" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B45" s="129"/>
       <c r="C45" s="133"/>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B46" s="34"/>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B47" s="34" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B48" s="33" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B49" s="129"/>
       <c r="C49" s="133"/>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B50" s="35"/>
       <c r="C50" s="35"/>
     </row>
@@ -11094,7 +12254,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -11107,7 +12267,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -11118,35 +12278,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>41</v>
       </c>
@@ -11172,7 +12332,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>126</v>
@@ -11187,7 +12347,7 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>127</v>
@@ -11214,7 +12374,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -11235,7 +12395,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
@@ -11256,7 +12416,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="94.5">
+    <row r="15" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -11276,7 +12436,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -11286,7 +12446,7 @@
       <c r="H16" s="46"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -11296,7 +12456,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -11306,7 +12466,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -11316,7 +12476,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -11326,7 +12486,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -11337,7 +12497,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
@@ -11348,7 +12508,7 @@
       <c r="H22" s="57"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -11358,7 +12518,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
@@ -11369,7 +12529,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
@@ -11380,7 +12540,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -11390,7 +12550,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -11400,7 +12560,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -11410,7 +12570,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -11420,7 +12580,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -11430,7 +12590,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -11440,7 +12600,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
       <c r="C32" s="117"/>
       <c r="D32" s="46"/>
@@ -11450,7 +12610,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="64"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -11460,7 +12620,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="64"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -11470,7 +12630,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="68"/>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
@@ -11480,7 +12640,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="68"/>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
@@ -11490,7 +12650,7 @@
       <c r="H36" s="46"/>
       <c r="I36" s="76"/>
     </row>
-    <row r="37" spans="1:9" ht="14.25" thickBot="1">
+    <row r="37" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="72"/>
       <c r="C37" s="47"/>
       <c r="D37" s="47"/>
@@ -11500,7 +12660,7 @@
       <c r="H37" s="47"/>
       <c r="I37" s="77"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -11510,7 +12670,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -11520,7 +12680,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9" ht="6" customHeight="1">
+    <row r="40" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -11530,7 +12690,7 @@
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
     </row>
-    <row r="41" spans="1:9" ht="14.25">
+    <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="32" t="s">
         <v>49</v>
       </c>
@@ -11540,7 +12700,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -11550,7 +12710,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="126" t="s">
         <v>82</v>
       </c>
@@ -11562,7 +12722,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -11572,7 +12732,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -11582,7 +12742,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -11592,7 +12752,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
@@ -11610,7 +12770,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -11628,7 +12788,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -11641,7 +12801,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -11652,35 +12812,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>41</v>
       </c>
@@ -11706,7 +12866,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>129</v>
@@ -11721,7 +12881,7 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>130</v>
@@ -11748,7 +12908,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -11769,7 +12929,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
@@ -11790,7 +12950,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="73.5">
+    <row r="15" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -11810,7 +12970,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -11820,7 +12980,7 @@
       <c r="H16" s="46"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -11830,7 +12990,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -11840,7 +13000,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -11850,7 +13010,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -11860,7 +13020,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -11870,7 +13030,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -11880,7 +13040,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -11890,7 +13050,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
@@ -11901,7 +13061,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
@@ -11912,7 +13072,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -11922,7 +13082,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="38"/>
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
@@ -11933,7 +13093,7 @@
       <c r="H27" s="57"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="38"/>
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
@@ -11944,7 +13104,7 @@
       <c r="H28" s="57"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -11954,7 +13114,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -11964,7 +13124,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -11974,7 +13134,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -11984,7 +13144,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="64"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -11994,7 +13154,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="64"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -12004,7 +13164,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="64"/>
       <c r="C35" s="117"/>
       <c r="D35" s="46"/>
@@ -12014,7 +13174,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="64"/>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
@@ -12024,7 +13184,7 @@
       <c r="H36" s="46"/>
       <c r="I36" s="76"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="68"/>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
@@ -12034,7 +13194,7 @@
       <c r="H37" s="46"/>
       <c r="I37" s="76"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="68"/>
       <c r="C38" s="46"/>
       <c r="D38" s="46"/>
@@ -12044,7 +13204,7 @@
       <c r="H38" s="46"/>
       <c r="I38" s="76"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="68"/>
       <c r="C39" s="46"/>
       <c r="D39" s="46"/>
@@ -12054,7 +13214,7 @@
       <c r="H39" s="46"/>
       <c r="I39" s="76"/>
     </row>
-    <row r="40" spans="1:9" ht="14.25" thickBot="1">
+    <row r="40" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B40" s="72"/>
       <c r="C40" s="47"/>
       <c r="D40" s="47"/>
@@ -12064,7 +13224,7 @@
       <c r="H40" s="47"/>
       <c r="I40" s="77"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -12074,7 +13234,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -12084,7 +13244,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9" ht="6" customHeight="1">
+    <row r="43" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -12094,7 +13254,7 @@
       <c r="G43" s="35"/>
       <c r="H43" s="35"/>
     </row>
-    <row r="44" spans="1:9" ht="14.25">
+    <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="32" t="s">
         <v>49</v>
       </c>
@@ -12104,7 +13264,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -12114,7 +13274,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -12124,7 +13284,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
@@ -12134,7 +13294,7 @@
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="35"/>
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
@@ -12144,7 +13304,7 @@
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="35"/>
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
@@ -12154,7 +13314,7 @@
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" s="35"/>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
@@ -12172,7 +13332,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -12190,7 +13350,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -12203,7 +13363,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -12214,35 +13374,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>41</v>
       </c>
@@ -12268,7 +13428,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>132</v>
@@ -12283,7 +13443,7 @@
       <c r="H11" s="118"/>
       <c r="I11" s="125"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>133</v>
       </c>
@@ -12309,7 +13469,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -12329,7 +13489,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="117"/>
       <c r="D14" s="46"/>
@@ -12349,7 +13509,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="73.5">
+    <row r="15" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -12369,7 +13529,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -12379,7 +13539,7 @@
       <c r="H16" s="46"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -12389,7 +13549,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
@@ -12400,7 +13560,7 @@
       <c r="H18" s="57"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="38"/>
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
@@ -12411,7 +13571,7 @@
       <c r="H19" s="57"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="119"/>
@@ -12421,7 +13581,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -12432,7 +13592,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
@@ -12443,7 +13603,7 @@
       <c r="H22" s="57"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="119"/>
@@ -12453,7 +13613,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -12463,7 +13623,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -12473,7 +13633,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -12483,7 +13643,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -12493,7 +13653,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -12503,7 +13663,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="117"/>
       <c r="D29" s="46"/>
@@ -12513,7 +13673,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -12523,7 +13683,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="68"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -12533,7 +13693,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="68"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -12543,7 +13703,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -12553,7 +13713,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25" thickBot="1">
+    <row r="34" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="72"/>
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
@@ -12563,7 +13723,7 @@
       <c r="H34" s="47"/>
       <c r="I34" s="77"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -12573,7 +13733,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -12583,7 +13743,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9" ht="6" customHeight="1">
+    <row r="37" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -12593,7 +13753,7 @@
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
     </row>
-    <row r="38" spans="1:9" ht="14.25">
+    <row r="38" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="32" t="s">
         <v>49</v>
       </c>
@@ -12603,7 +13763,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -12613,7 +13773,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -12623,7 +13783,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -12633,7 +13793,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -12643,7 +13803,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -12653,7 +13813,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -12671,7 +13831,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -12689,7 +13849,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -12702,7 +13862,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -12713,35 +13873,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>41</v>
       </c>
@@ -12767,7 +13927,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="123" t="s">
         <v>135</v>
@@ -12782,7 +13942,7 @@
       <c r="H11" s="118"/>
       <c r="I11" s="125"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="123" t="s">
         <v>137</v>
       </c>
@@ -12808,7 +13968,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="123"/>
       <c r="C13" s="124"/>
       <c r="D13" s="119"/>
@@ -12828,7 +13988,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B14" s="123"/>
       <c r="C14" s="46"/>
       <c r="D14" s="119"/>
@@ -12848,7 +14008,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="115.5">
+    <row r="15" spans="1:9" ht="115.5" x14ac:dyDescent="0.15">
       <c r="B15" s="123"/>
       <c r="C15" s="124"/>
       <c r="D15" s="119"/>
@@ -12868,7 +14028,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="123"/>
       <c r="C16" s="46"/>
       <c r="D16" s="119"/>
@@ -12878,7 +14038,7 @@
       <c r="H16" s="46"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="123"/>
       <c r="C17" s="124"/>
       <c r="D17" s="119"/>
@@ -12888,7 +14048,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="123"/>
       <c r="C18" s="46"/>
       <c r="D18" s="119"/>
@@ -12898,7 +14058,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="123"/>
       <c r="C19" s="46"/>
       <c r="D19" s="119"/>
@@ -12908,7 +14068,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
       <c r="B20" s="123"/>
       <c r="C20" s="46"/>
@@ -12919,7 +14079,7 @@
       <c r="H20" s="57"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="123"/>
       <c r="C21" s="46"/>
@@ -12930,7 +14090,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="123"/>
       <c r="C22" s="46"/>
       <c r="D22" s="119"/>
@@ -12940,7 +14100,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="38"/>
       <c r="B23" s="123"/>
       <c r="C23" s="46"/>
@@ -12951,7 +14111,7 @@
       <c r="H23" s="57"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="123"/>
       <c r="C24" s="46"/>
@@ -12962,7 +14122,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="123"/>
       <c r="C25" s="46"/>
       <c r="D25" s="119"/>
@@ -12972,7 +14132,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="123"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -12982,7 +14142,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -12992,7 +14152,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -13002,7 +14162,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -13012,7 +14172,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -13022,7 +14182,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="117"/>
       <c r="D31" s="46"/>
@@ -13032,7 +14192,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -13042,7 +14202,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -13052,7 +14212,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="68"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -13062,7 +14222,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="68"/>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
@@ -13072,7 +14232,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25" thickBot="1">
+    <row r="36" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B36" s="72"/>
       <c r="C36" s="47"/>
       <c r="D36" s="47"/>
@@ -13082,7 +14242,7 @@
       <c r="H36" s="47"/>
       <c r="I36" s="77"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -13092,7 +14252,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -13102,7 +14262,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9" ht="6" customHeight="1">
+    <row r="39" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -13112,7 +14272,7 @@
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
     </row>
-    <row r="40" spans="1:9" ht="14.25">
+    <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="32" t="s">
         <v>49</v>
       </c>
@@ -13122,7 +14282,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -13132,7 +14292,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -13142,7 +14302,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -13152,7 +14312,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -13162,7 +14322,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -13172,7 +14332,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -13190,7 +14350,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
